--- a/Assets/Resources/GameData/Excel/道具配置表.xlsx
+++ b/Assets/Resources/GameData/Excel/道具配置表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Project\Demo-Cyber\Assets\Resources\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Project\Cyber\Demo-Cyber\Assets\Resources\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF224EC-CD7E-4052-AEF7-B8DB9BC03A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF8F602-4BCD-43E1-9413-F4C352A48FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,10 @@
   </si>
   <si>
     <t>十年魂兽白狒狒的魂环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -554,7 +558,7 @@
     <col min="6" max="6" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,8 +577,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -593,8 +600,11 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -613,8 +623,11 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -633,8 +646,11 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -653,8 +669,11 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -673,8 +692,11 @@
       <c r="F6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -693,8 +715,11 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -713,8 +738,11 @@
       <c r="F8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -733,8 +761,11 @@
       <c r="F9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -753,8 +784,11 @@
       <c r="F10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -773,8 +807,11 @@
       <c r="F11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -793,8 +830,11 @@
       <c r="F12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -813,8 +853,11 @@
       <c r="F13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -833,8 +876,11 @@
       <c r="F14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -852,6 +898,9 @@
       </c>
       <c r="F15" t="s">
         <v>47</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
